--- a/B题/B3策略结果.xlsx
+++ b/B题/B3策略结果.xlsx
@@ -456,11 +456,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>不检测零配件 1，不检测零配件 2，检测零配件 3，不检测零配件 4，检测零配件 5，不检测零配件 6，不检测零配件 7，不检测零配件 8，检测半成品 1，不检测半成品 2，检测半成品 3，检测成品，不拆解半成品 1，不拆解半成品 2，不拆解半成品 3，拆解不合格成品</t>
+          <t>不检测零配件 1，检测零配件 2，不检测零配件 3，不检测零配件 4，检测零配件 5，检测零配件 6，检测零配件 7，检测零配件 8，不检测半成品 1，检测半成品 2，检测半成品 3，不检测成品，不拆解半成品 1，拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>127</v>
+        <v>123.1538461538462</v>
       </c>
     </row>
     <row r="3">
@@ -469,11 +469,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>检测零配件 1，不检测零配件 2，不检测零配件 3，不检测零配件 4，检测零配件 5，不检测零配件 6，检测零配件 7，检测零配件 8，检测半成品 1，不检测半成品 2，检测半成品 3，不检测成品，拆解半成品 1，不拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
+          <t>不检测零配件 1，检测零配件 2，不检测零配件 3，不检测零配件 4，检测零配件 5，不检测零配件 6，不检测零配件 7，检测零配件 8，检测半成品 1，不检测半成品 2，检测半成品 3，检测成品，不拆解半成品 1，不拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>119</v>
+        <v>120.1538461538462</v>
       </c>
     </row>
     <row r="4">
@@ -482,11 +482,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>不检测零配件 1，不检测零配件 2，不检测零配件 3，不检测零配件 4，不检测零配件 5，检测零配件 6，不检测零配件 7，不检测零配件 8，不检测半成品 1，检测半成品 2，不检测半成品 3，不检测成品，不拆解半成品 1，不拆解半成品 2，拆解半成品 3，不拆解不合格成品</t>
+          <t>检测零配件 1，检测零配件 2，检测零配件 3，不检测零配件 4，不检测零配件 5，不检测零配件 6，检测零配件 7，不检测零配件 8，不检测半成品 1，检测半成品 2，不检测半成品 3，检测成品，不拆解半成品 1，不拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>112</v>
+        <v>117.1538461538462</v>
       </c>
     </row>
     <row r="5">
@@ -495,11 +495,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>检测零配件 1，检测零配件 2，不检测零配件 3，不检测零配件 4，不检测零配件 5，不检测零配件 6，不检测零配件 7，不检测零配件 8，不检测半成品 1，检测半成品 2，不检测半成品 3，不检测成品，不拆解半成品 1，不拆解半成品 2，拆解半成品 3，不拆解不合格成品</t>
+          <t>不检测零配件 1，不检测零配件 2，不检测零配件 3，检测零配件 4，检测零配件 5，检测零配件 6，不检测零配件 7，不检测零配件 8，不检测半成品 1，检测半成品 2，检测半成品 3，不检测成品，不拆解半成品 1，不拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>112</v>
+        <v>114.1538461538462</v>
       </c>
     </row>
     <row r="6">
@@ -508,11 +508,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>不检测零配件 1，不检测零配件 2，不检测零配件 3，检测零配件 4，不检测零配件 5，检测零配件 6，检测零配件 7，不检测零配件 8，不检测半成品 1，不检测半成品 2，不检测半成品 3，不检测成品，不拆解半成品 1，拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
+          <t>检测零配件 1，不检测零配件 2，不检测零配件 3，检测零配件 4，检测零配件 5，不检测零配件 6，检测零配件 7，检测零配件 8，检测半成品 1，不检测半成品 2，不检测半成品 3，不检测成品，不拆解半成品 1，不拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>110</v>
+        <v>112.1538461538462</v>
       </c>
     </row>
     <row r="7">
@@ -521,11 +521,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>检测零配件 1，不检测零配件 2，不检测零配件 3，不检测零配件 4，不检测零配件 5，不检测零配件 6，不检测零配件 7，不检测零配件 8，不检测半成品 1，不检测半成品 2，不检测半成品 3，检测成品，不拆解半成品 1，不拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
+          <t>不检测零配件 1，检测零配件 2，不检测零配件 3，不检测零配件 4，检测零配件 5，不检测零配件 6，不检测零配件 7，不检测零配件 8，检测半成品 1，不检测半成品 2，不检测半成品 3，不检测成品，不拆解半成品 1，不拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>107</v>
+        <v>108.1538461538462</v>
       </c>
     </row>
     <row r="8">
@@ -534,11 +534,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>不检测零配件 1，检测零配件 2，不检测零配件 3，不检测零配件 4，不检测零配件 5，不检测零配件 6，不检测零配件 7，不检测零配件 8，不检测半成品 1，不检测半成品 2，检测半成品 3，不检测成品，不拆解半成品 1，不拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
+          <t>不检测零配件 1，不检测零配件 2，不检测零配件 3，不检测零配件 4，检测零配件 5，不检测零配件 6，不检测零配件 7，不检测零配件 8，不检测半成品 1，不检测半成品 2，检测半成品 3，不检测成品，不拆解半成品 1，不拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>105</v>
+        <v>107.1538461538462</v>
       </c>
     </row>
     <row r="9">
@@ -547,11 +547,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>不检测零配件 1，检测零配件 2，不检测零配件 3，不检测零配件 4，不检测零配件 5，不检测零配件 6，不检测零配件 7，不检测零配件 8，不检测半成品 1，不检测半成品 2，检测半成品 3，不检测成品，不拆解半成品 1，不拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
+          <t>不检测零配件 1，不检测零配件 2，检测零配件 3，不检测零配件 4，不检测零配件 5，不检测零配件 6，不检测零配件 7，不检测零配件 8，不检测半成品 1，不检测半成品 2，不检测半成品 3，不检测成品，不拆解半成品 1，不拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>105</v>
+        <v>104.1538461538462</v>
       </c>
     </row>
     <row r="10">
@@ -560,11 +560,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>不检测零配件 1，检测零配件 2，不检测零配件 3，不检测零配件 4，检测零配件 5，不检测零配件 6，不检测零配件 7，不检测零配件 8，不检测半成品 1，不检测半成品 2，不检测半成品 3，不检测成品，不拆解半成品 1，不拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
+          <t>检测零配件 1，不检测零配件 2，不检测零配件 3，检测零配件 4，不检测零配件 5，不检测零配件 6，不检测零配件 7，不检测零配件 8，不检测半成品 1，不检测半成品 2，不检测半成品 3，不检测成品，不拆解半成品 1，不拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>102</v>
+        <v>104.1538461538462</v>
       </c>
     </row>
     <row r="11">
@@ -573,11 +573,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>不检测零配件 1，不检测零配件 2，不检测零配件 3，不检测零配件 4，检测零配件 5，不检测零配件 6，不检测零配件 7，不检测零配件 8，不检测半成品 1，不检测半成品 2，不检测半成品 3，不检测成品，不拆解半成品 1，不拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
+          <t>不检测零配件 1，不检测零配件 2，检测零配件 3，不检测零配件 4，不检测零配件 5，不检测零配件 6，不检测零配件 7，不检测零配件 8，不检测半成品 1，不检测半成品 2，不检测半成品 3，不检测成品，不拆解半成品 1，不拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>101</v>
+        <v>104.1538461538462</v>
       </c>
     </row>
     <row r="12">
@@ -586,11 +586,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>检测零配件 1，不检测零配件 2，不检测零配件 3，不检测零配件 4，不检测零配件 5，不检测零配件 6，不检测零配件 7，不检测零配件 8，不检测半成品 1，不检测半成品 2，不检测半成品 3，不检测成品，不拆解半成品 1，不拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
+          <t>检测零配件 1，不检测零配件 2，不检测零配件 3，不检测零配件 4，不检测零配件 5，不检测零配件 6，检测零配件 7，不检测零配件 8，不检测半成品 1，不检测半成品 2，不检测半成品 3，不检测成品，不拆解半成品 1，不拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>101</v>
+        <v>104.1538461538462</v>
       </c>
     </row>
     <row r="13">
@@ -599,11 +599,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>不检测零配件 1，不检测零配件 2，不检测零配件 3，不检测零配件 4，检测零配件 5，不检测零配件 6，不检测零配件 7，不检测零配件 8，不检测半成品 1，不检测半成品 2，不检测半成品 3，不检测成品，不拆解半成品 1，不拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
+          <t>不检测零配件 1，检测零配件 2，不检测零配件 3，不检测零配件 4，检测零配件 5，不检测零配件 6，不检测零配件 7，不检测零配件 8，不检测半成品 1，不检测半成品 2，不检测半成品 3，不检测成品，不拆解半成品 1，不拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>101</v>
+        <v>104.1538461538462</v>
       </c>
     </row>
     <row r="14">
@@ -612,11 +612,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>不检测零配件 1，不检测零配件 2，不检测零配件 3，不检测零配件 4，检测零配件 5，不检测零配件 6，不检测零配件 7，不检测零配件 8，不检测半成品 1，不检测半成品 2，不检测半成品 3，不检测成品，不拆解半成品 1，不拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
+          <t>不检测零配件 1，不检测零配件 2，不检测零配件 3，不检测零配件 4，不检测零配件 5，不检测零配件 6，不检测零配件 7，不检测零配件 8，不检测半成品 1，不检测半成品 2，不检测半成品 3，不检测成品，不拆解半成品 1，不拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>101</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="20">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="23">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="24">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="25">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="26">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="27">
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="28">
@@ -794,11 +794,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>不检测零配件 1，检测零配件 2，不检测零配件 3，不检测零配件 4，不检测零配件 5，不检测零配件 6，不检测零配件 7，不检测零配件 8，不检测半成品 1，不检测半成品 2，不检测半成品 3，不检测成品，不拆解半成品 1，不拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
+          <t>不检测零配件 1，不检测零配件 2，不检测零配件 3，不检测零配件 4，不检测零配件 5，不检测零配件 6，不检测零配件 7，不检测零配件 8，不检测半成品 1，不检测半成品 2，不检测半成品 3，不检测成品，不拆解半成品 1，不拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>101</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="29">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="30">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="31">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="32">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="34">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="36">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="37">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="38">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="41">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="42">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="43">
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="44">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="45">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="46">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="47">
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="48">
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="49">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="50">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="51">
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="52">
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="53">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="54">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="55">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="56">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="57">
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="58">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="59">
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="60">
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="61">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="62">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="63">
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="64">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="65">
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="66">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="67">
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="68">
@@ -1318,7 +1318,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="69">
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="70">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="71">
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="72">
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="73">
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="74">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="75">
@@ -1409,7 +1409,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="76">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="77">
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="78">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="79">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="80">
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="81">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="82">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="83">
@@ -1513,7 +1513,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="84">
@@ -1522,11 +1522,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>不检测零配件 1，不检测零配件 2，检测零配件 3，不检测零配件 4，不检测零配件 5，不检测零配件 6，不检测零配件 7，不检测零配件 8，不检测半成品 1，不检测半成品 2，不检测半成品 3，不检测成品，不拆解半成品 1，不拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
+          <t>不检测零配件 1，不检测零配件 2，不检测零配件 3，不检测零配件 4，不检测零配件 5，不检测零配件 6，不检测零配件 7，不检测零配件 8，不检测半成品 1，不检测半成品 2，不检测半成品 3，不检测成品，不拆解半成品 1，不拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>102</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="85">
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="86">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="87">
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="88">
@@ -1578,7 +1578,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="89">
@@ -1591,7 +1591,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="90">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="91">
@@ -1613,11 +1613,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>不检测零配件 1，检测零配件 2，不检测零配件 3，不检测零配件 4，不检测零配件 5，不检测零配件 6，不检测零配件 7，不检测零配件 8，不检测半成品 1，不检测半成品 2，不检测半成品 3，不检测成品，不拆解半成品 1，不拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
+          <t>不检测零配件 1，不检测零配件 2，不检测零配件 3，不检测零配件 4，不检测零配件 5，不检测零配件 6，不检测零配件 7，不检测零配件 8，不检测半成品 1，不检测半成品 2，不检测半成品 3，不检测成品，不拆解半成品 1，不拆解半成品 2，不拆解半成品 3，不拆解不合格成品</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>101</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="92">
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="93">
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="94">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="95">
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="96">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="97">
@@ -1695,7 +1695,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="98">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="99">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="100">
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
     <row r="101">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>100</v>
+        <v>102.1538461538462</v>
       </c>
     </row>
   </sheetData>
